--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -101,13 +101,22 @@
   </si>
   <si>
     <t>Xem note lỗi chưa sửa ở tuần 2</t>
+  </si>
+  <si>
+    <t>Tuần 3 (12/5/2017 - 18/5/2017)</t>
+  </si>
+  <si>
+    <t>Tuần 2 (5/5/2017 - 11/5/2017)</t>
+  </si>
+  <si>
+    <t>Tuần 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +139,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -559,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,47 +599,41 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -622,28 +642,46 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="11">
         <v>0.9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -651,10 +689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,129 +703,128 @@
     <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8">
         <v>0.8</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="3" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -801,15 +838,15 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -823,15 +860,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -845,15 +882,15 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -868,11 +905,19 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1833,7 +1878,25 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="4" r:id="rId1"/>
     <sheet name="Tuần 1" sheetId="1" r:id="rId2"/>
     <sheet name="Tuần 2" sheetId="2" r:id="rId3"/>
     <sheet name="Tuần 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Tuần 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -110,6 +111,33 @@
   </si>
   <si>
     <t>Tuần 1</t>
+  </si>
+  <si>
+    <t>Lỗi méo avartar</t>
+  </si>
+  <si>
+    <t>Code màn hình (19)</t>
+  </si>
+  <si>
+    <t>Tạo trang quản lý nhân viên (chỉnh dành cho quản trị)</t>
+  </si>
+  <si>
+    <t>Tạo trang quản lý khách (chỉnh dành cho quản trị và nhân viên)</t>
+  </si>
+  <si>
+    <t>Tạo trang cài đặt web cho phép input các thông số như tên khách sạn, tông màu khách sạn, đường dẫn đến link hình nền khách sạn, đường dẫn tới link các banner quản cáo,</t>
+  </si>
+  <si>
+    <t>Code màn hình (18)</t>
+  </si>
+  <si>
+    <t>Code màn hình (17)</t>
+  </si>
+  <si>
+    <t>Code màn hình (16)</t>
+  </si>
+  <si>
+    <t>Tuần 4 (19/5/2017 - 25/5/2017)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,6 +244,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -272,6 +309,49 @@
         <a:xfrm>
           <a:off x="0" y="161925"/>
           <a:ext cx="10058400" cy="6600443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>771405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="314325"/>
+          <a:ext cx="2123810" cy="961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -778,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +867,7 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -827,9 +907,11 @@
         <v>23</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -849,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
@@ -871,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
@@ -893,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4"/>
@@ -1898,5 +1980,126 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Tuần 4 (19/5/2017 - 25/5/2017)</t>
+  </si>
+  <si>
+    <t>Sửa task số 1 tuần 3</t>
+  </si>
+  <si>
+    <t>Xem note lỗi chưa sửa ở tuần 3</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,9 +248,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +257,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,13 +687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -784,13 +791,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -871,13 +878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1986,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,13 +2008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2027,72 +2034,86 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="17">
         <v>0</v>
       </c>
     </row>

--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Tuần 2" sheetId="2" r:id="rId3"/>
     <sheet name="Tuần 3" sheetId="3" r:id="rId4"/>
     <sheet name="Tuần 4" sheetId="5" r:id="rId5"/>
+    <sheet name="bug" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -144,6 +145,153 @@
   </si>
   <si>
     <t>Xem note lỗi chưa sửa ở tuần 3</t>
+  </si>
+  <si>
+    <t>Sửa lại là Chọn số phòng tối đa</t>
+  </si>
+  <si>
+    <t>Mục quản lý khách sạn, Hành động thêm KS</t>
+  </si>
+  <si>
+    <t>Mục quản lý KS, hành động sửa ks</t>
+  </si>
+  <si>
+    <t>Sửa lại là nút "ok", nhỏ như 2 nút kia</t>
+  </si>
+  <si>
+    <t>Mục quản lý KS, hành động xem KS</t>
+  </si>
+  <si>
+    <t>Disable tất cả các input</t>
+  </si>
+  <si>
+    <t>Lỗi 4</t>
+  </si>
+  <si>
+    <t>Mục Quản lý KS, HÀNH động xóa KS</t>
+  </si>
+  <si>
+    <t>Phải có thông báo đã xóa và trở lại trang</t>
+  </si>
+  <si>
+    <t>Lỗi hiên tại: Bi hiện trang trắng</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: 3 input đầu ko bị disable</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: Nút ko đúng nội dung và to</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: cần cho thấy chữ "Chọn số phòng" trc khi chọn số</t>
+  </si>
+  <si>
+    <t>Lựa chọn số phòng là : 10/20/50/100/200/500</t>
+  </si>
+  <si>
+    <t>Lỗi 5</t>
+  </si>
+  <si>
+    <t>Mục quản lý quản trị ks, hành động thêm quản trị</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: cho thấy khách sạn trước</t>
+  </si>
+  <si>
+    <t>Yêu cầu: hiện chữ "chọn ks"</t>
+  </si>
+  <si>
+    <t>Lỗi 6</t>
+  </si>
+  <si>
+    <t>Mục quản lý quản trị ks, thêm quản trị ks sau đó xóa khách sạn đó</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: sau khi xóa KS thì quản trị KS đó vẫn tồn tại</t>
+  </si>
+  <si>
+    <t>Yêu cầu: tìm và xóa tất cả các quản trị KS có liên quan khi xóa 1 KS</t>
+  </si>
+  <si>
+    <t>Lỗi 7</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: Sai nội dung</t>
+  </si>
+  <si>
+    <t>Yêu cầu: sửa lại là quản trị KS, Chỉnh lại nút cho nhỏ, chữ "OK"</t>
+  </si>
+  <si>
+    <t>Mục QL QTKS, Hành động sửa 1 quản trị</t>
+  </si>
+  <si>
+    <t>Lỗi 8</t>
+  </si>
+  <si>
+    <t>Mục quản lý hệ thống KS, Type =1, hành động thêm KS</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: user không phải nhập vào</t>
+  </si>
+  <si>
+    <t>Yêu cầu: lựa chọn user trong DB, nếu ko có user thì ko cho thêm ks, chọn số phòng 10/20/50/100/200/500 chứ ko phải loại KS</t>
+  </si>
+  <si>
+    <t>Lỗi 1</t>
+  </si>
+  <si>
+    <t>Lỗi 2</t>
+  </si>
+  <si>
+    <t>Lỗi 3</t>
+  </si>
+  <si>
+    <t>Lỗi 9</t>
+  </si>
+  <si>
+    <t>Nhấn vào hồ sơ ra 404</t>
+  </si>
+  <si>
+    <t>Yêu cầu: Bỏ đi hoặc dẫn vào sửa profile cho tất cả các trang quản lý</t>
+  </si>
+  <si>
+    <t>Lỗi 10</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: Modal không thông báo mà biến mất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yêu câu: Modal cần đứng yên và thông báo </t>
+  </si>
+  <si>
+    <t>Nhấn vào đăng kí trang chủ cho chủ KS với email trùng</t>
+  </si>
+  <si>
+    <t>Lỗi 11</t>
+  </si>
+  <si>
+    <t>Đăng nhập với chủ KS khác nhưng lại thấy danh sách quản trị khách sạn không liên quan đến chủ KS đó</t>
+  </si>
+  <si>
+    <t>Yêu cầu: cần ngăn cách quản trị cho các chủ KS khác nhau, tuyệt đối ko lẫn lộn và xem danh sách của nhau</t>
+  </si>
+  <si>
+    <t>Lõi 12: ????</t>
+  </si>
+  <si>
+    <t>Lỗi 13</t>
+  </si>
+  <si>
+    <t>Nhấn vào thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Lỗi hiện tại: Không có  giao diện quản lý</t>
+  </si>
+  <si>
+    <t>Yêu cầu: cũng phải có giao diện quản lý như các tài khoản khác</t>
+  </si>
+  <si>
+    <t>Lỗi 14: Sửa lại nút "OK"</t>
   </si>
 </sst>
 </file>
@@ -257,10 +405,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +507,503 @@
         <a:xfrm>
           <a:off x="8172450" y="314325"/>
           <a:ext cx="2123810" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66209</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3723809" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94781</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>170881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="3752381" cy="4552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>56643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9334500"/>
+          <a:ext cx="3628571" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265981</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13716000"/>
+          <a:ext cx="5752381" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571048</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="3619048" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370743</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>47048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22860000"/>
+          <a:ext cx="5857143" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428114</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>180333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28003500"/>
+          <a:ext cx="4085714" cy="5133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533105</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>123643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33337500"/>
+          <a:ext cx="2361905" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323200</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>151833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35052000"/>
+          <a:ext cx="5200000" cy="4533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>18738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect r="15789"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="39814500"/>
+          <a:ext cx="8477250" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>85262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect r="5573"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42481500"/>
+          <a:ext cx="8696325" cy="3704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217631</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>132619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="47244000"/>
+          <a:ext cx="11552381" cy="5847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513600</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>85143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="53340000"/>
+          <a:ext cx="6000000" cy="4657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,13 +1332,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -791,13 +1436,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -878,13 +1523,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1995,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2008,13 +2653,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2113,7 +2758,7 @@
       <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2123,4 +2768,250 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:P281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F90" workbookViewId="0">
+      <selection activeCell="S284" sqref="S284"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>60</v>
+      </c>
+      <c r="I101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>64</v>
+      </c>
+      <c r="M121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>78</v>
+      </c>
+      <c r="K186" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="187" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K187" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K188" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="15:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O211" t="s">
+        <v>82</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="15:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="P212" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P223" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>86</v>
+      </c>
+      <c r="G243" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="281" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P281" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -938,16 +938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>246</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>217631</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>132619</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2560781</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>113569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -964,7 +964,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="47244000"/>
+          <a:off x="152400" y="47415450"/>
           <a:ext cx="11552381" cy="5847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -976,16 +976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>85143</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104025</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>18468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,7 +1002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="53340000"/>
+          <a:off x="200025" y="53463825"/>
           <a:ext cx="6000000" cy="4657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2774,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
       <selection activeCell="S284" sqref="S284"/>
     </sheetView>
   </sheetViews>

--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -668,6 +668,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -706,6 +711,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -820,6 +830,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -895,6 +910,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -932,6 +952,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -970,6 +995,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1008,6 +1038,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2774,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="S284" sqref="S284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="Tuần 2" sheetId="2" r:id="rId3"/>
     <sheet name="Tuần 3" sheetId="3" r:id="rId4"/>
     <sheet name="Tuần 4" sheetId="5" r:id="rId5"/>
-    <sheet name="bug" sheetId="6" r:id="rId6"/>
+    <sheet name=" Bug tuần 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Tuần 5" sheetId="7" r:id="rId7"/>
+    <sheet name="Bug tuần 5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -78,9 +80,6 @@
     <t>Tạo màn hình quản lý quản trị ks</t>
   </si>
   <si>
-    <t>Chưa tạo nút lọc theo khách sạn, nút thêm quản trị ghi là "thêm khách hàng), cần disable nút thêm quản trị khi có 0 khách sạn</t>
-  </si>
-  <si>
     <t>Chưa thêm gói dịch vụ (theo tháng), chưa bỏ config, cần thêm if để xét tính hợp lệ khi input, tránh gây lỗi DB</t>
   </si>
   <si>
@@ -292,13 +291,76 @@
   </si>
   <si>
     <t>Lỗi 14: Sửa lại nút "OK"</t>
+  </si>
+  <si>
+    <t>Thêm 1 quản trị có email/ tài khoản tồn tại</t>
+  </si>
+  <si>
+    <t>Hiện tại: Modal biến mất không cảnh báo</t>
+  </si>
+  <si>
+    <t>Yêu cầu: Giữ modal lại và hiện thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Thêm quản trị khách sạn với một khách sạn đầu tiên</t>
+  </si>
+  <si>
+    <t>3 nút bị lệch sang cột "hotel"</t>
+  </si>
+  <si>
+    <t>Yêu cầu: chỉnh sang cột quản lý và cho thấy tên KS</t>
+  </si>
+  <si>
+    <t>Chưa tạo nút lọc theo khách sạn</t>
+  </si>
+  <si>
+    <t>Chưa có giao diện cho nhân viên</t>
+  </si>
+  <si>
+    <t>Thiếu 1 số thông số và chưa hiện thực như màu sắc, hình nền, miêu tả khách sạn…</t>
+  </si>
+  <si>
+    <t>Tuần 5 (26/5/2017 - 1/6/2017)</t>
+  </si>
+  <si>
+    <t>Code màn hình (20)</t>
+  </si>
+  <si>
+    <t>Tạo menu quản lý đặt phòng cho nhân viên (check-in, check-out, thêm đặt phòng, sửa đặt phòng, xóa đặt phòng đều là các pop-up)</t>
+  </si>
+  <si>
+    <t>Code màn hình (15)</t>
+  </si>
+  <si>
+    <t>Tạo menu quản lý phòng dành cho quản trị viên</t>
+  </si>
+  <si>
+    <t>Thêm giao diện cho khách ở màn hình (19)</t>
+  </si>
+  <si>
+    <t>Thêm giao diện chỉnh sửa hồ sơ dành cho khách với template mới</t>
+  </si>
+  <si>
+    <t>Chưa thiết kế giao diện hồ sơ cho khách hàng</t>
+  </si>
+  <si>
+    <t>Xem note lỗi chưa sửa ở tuần 4</t>
+  </si>
+  <si>
+    <t>Fix bug ở sheet "Bug tuần 5"</t>
+  </si>
+  <si>
+    <t>Xem sheet "bug tuần 5"</t>
+  </si>
+  <si>
+    <t>Sửa 4 task tuần 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +391,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +433,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,6 +505,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,6 +1157,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6285714" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465371</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7419975"/>
+          <a:ext cx="10828571" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1339,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -1368,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1377,7 +1565,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1459,7 +1647,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1481,7 +1669,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1507,13 +1695,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1524,10 +1712,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,7 +1734,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1568,7 +1756,7 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1591,13 +1779,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1615,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1637,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -1659,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1678,13 +1866,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
@@ -2676,7 +2864,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,11 +2873,12 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2698,7 +2887,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2718,13 +2907,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="15">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,27 +2924,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="15">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="15">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2760,13 +2956,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="15">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2774,28 +2973,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="15">
-        <v>0</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" s="16">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2809,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,229 +3021,407 @@
   <sheetData>
     <row r="1" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K73" t="s">
+        <v>47</v>
+      </c>
+      <c r="L73" t="s">
         <v>48</v>
-      </c>
-      <c r="L73" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="74" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" t="s">
         <v>56</v>
-      </c>
-      <c r="I97" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" t="s">
         <v>60</v>
-      </c>
-      <c r="I101" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L121" t="s">
+        <v>63</v>
+      </c>
+      <c r="M121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L122" s="18">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
         <v>64</v>
-      </c>
-      <c r="M121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M122" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="123" spans="12:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148" t="s">
         <v>68</v>
-      </c>
-      <c r="I148" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
+        <v>74</v>
+      </c>
+      <c r="F176" t="s">
         <v>75</v>
-      </c>
-      <c r="F176" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="177" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="6:11" x14ac:dyDescent="0.25">
       <c r="K187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" spans="6:11" x14ac:dyDescent="0.25">
       <c r="K188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="15:16" ht="30" x14ac:dyDescent="0.25">
       <c r="O211" t="s">
+        <v>81</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="212" spans="15:16" ht="30" x14ac:dyDescent="0.25">
       <c r="P212" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="223" spans="15:16" x14ac:dyDescent="0.25">
       <c r="P223" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
+        <v>85</v>
+      </c>
+      <c r="G243" t="s">
         <v>86</v>
-      </c>
-      <c r="G243" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G244" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G245" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P281" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Map" sheetId="4" r:id="rId1"/>
-    <sheet name="Tuần 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Tuần 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Tuần 3" sheetId="3" r:id="rId4"/>
-    <sheet name="Tuần 4" sheetId="5" r:id="rId5"/>
-    <sheet name=" Bug tuần 4" sheetId="6" r:id="rId6"/>
-    <sheet name="Tuần 5" sheetId="7" r:id="rId7"/>
-    <sheet name="Bug tuần 5" sheetId="8" r:id="rId8"/>
+    <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuần 4" sheetId="5" r:id="rId4"/>
+    <sheet name=" Bug tuần 4" sheetId="6" r:id="rId5"/>
+    <sheet name="Tuần 5" sheetId="7" r:id="rId6"/>
+    <sheet name="Bug tuần 5" sheetId="8" r:id="rId7"/>
+    <sheet name="Tuần 6" sheetId="10" r:id="rId8"/>
+    <sheet name="Bug tuần 6" sheetId="9" r:id="rId9"/>
+    <sheet name="Map" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -354,13 +356,100 @@
   </si>
   <si>
     <t>Sửa 4 task tuần 4</t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>vào 1 trang quản lý ở hệ thống con</t>
+  </si>
+  <si>
+    <t>Nhấn nút logout, nhấn nút back,  nhấn nút logout</t>
+  </si>
+  <si>
+    <t>Yêu cầu: Kiểm tra session và chuyển về trang chủ</t>
+  </si>
+  <si>
+    <t>Vào trang quản lý con, logout</t>
+  </si>
+  <si>
+    <t>Yêu cầu: chuyển về trang con hiện hành chứ ko phải hệ thống cha</t>
+  </si>
+  <si>
+    <t>Đặt phòng với lỗi</t>
+  </si>
+  <si>
+    <t>Hiện trạng</t>
+  </si>
+  <si>
+    <t>Modal biến mất</t>
+  </si>
+  <si>
+    <t>Modal đứng yên và hiện lỗi</t>
+  </si>
+  <si>
+    <t>Chưa có nút checkin, checkout trong khung quản lý</t>
+  </si>
+  <si>
+    <t>Đây là thêm đặt phòng, ko phải checkin</t>
+  </si>
+  <si>
+    <t>Giữ tên loại phòng</t>
+  </si>
+  <si>
+    <t>Cần có thêm 2 nút checkin và checkout bên cạnh 3 nút này</t>
+  </si>
+  <si>
+    <t>Có bug</t>
+  </si>
+  <si>
+    <t>xem 1 đặt phòng, Loại phòng bị biến thành 1 con số</t>
+  </si>
+  <si>
+    <t>Tuần 6 (2/6/2017 - 8/6/2017)</t>
+  </si>
+  <si>
+    <t>Code màn hình (12)</t>
+  </si>
+  <si>
+    <t>Tạo menu xem thu nhập theo 1 tháng của khách sạn. Thu nhập được tính bằng tổng số tiền thu được từ việc đặt phòng trừ đi tổng lương nhân viên. Hiển thị biểu đồ so sánh giữa các tháng.</t>
+  </si>
+  <si>
+    <t>Thêm chức năng thanh toán paypal cho màn hình (20)</t>
+  </si>
+  <si>
+    <t>Sử dụng Paypal API để cài đặt thanh toán việc đặt phòng</t>
+  </si>
+  <si>
+    <t>Code màn hình (14)</t>
+  </si>
+  <si>
+    <t>Xem các lịch sử thanh toán của khách sạn</t>
+  </si>
+  <si>
+    <t>Fix bug ở sheet "Bug tuần 6"</t>
+  </si>
+  <si>
+    <t>Sửa các task tuần 5</t>
+  </si>
+  <si>
+    <t>Viết LV</t>
+  </si>
+  <si>
+    <t>Viết vào file word về việc sử dụng Paypal và phân tên miền</t>
+  </si>
+  <si>
+    <t>Xem sheet "bug tuần 6"</t>
+  </si>
+  <si>
+    <t>Xem note lỗi chưa sửa ở tuần 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +502,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +542,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -458,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -502,9 +605,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -512,10 +612,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,55 +646,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94868</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="161925"/>
-          <a:ext cx="10058400" cy="6600443"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -625,7 +688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1157,7 +1220,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1227,6 +1290,283 @@
         <a:xfrm>
           <a:off x="0" y="7419975"/>
           <a:ext cx="10828571" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437181</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7752381" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>398933</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4086225"/>
+          <a:ext cx="8933333" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47162</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="3704762" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6695238" cy="5390476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10287000"/>
+          <a:ext cx="6695238" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189714</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>113786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17716500"/>
+          <a:ext cx="6285714" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323276</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>47381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22098000"/>
+          <a:ext cx="4590476" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="161925"/>
+          <a:ext cx="10058400" cy="6600443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,21 +1865,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1555,13 +1880,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1642,7 +1967,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1659,13 +1999,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1712,7 +2052,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>96</v>
@@ -1729,7 +2069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
@@ -1746,13 +2086,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2859,12 +3199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,13 +3217,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2915,7 +3255,7 @@
       <c r="D3" s="15">
         <v>0.8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2932,7 +3272,7 @@
       <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -2945,9 +3285,9 @@
         <v>33</v>
       </c>
       <c r="D5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2964,7 +3304,7 @@
       <c r="D6" s="15">
         <v>0.5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2979,9 +3319,9 @@
         <v>26</v>
       </c>
       <c r="D7" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -2996,7 +3336,7 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3006,7 +3346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:P281"/>
   <sheetViews>
@@ -3147,7 +3487,7 @@
       </c>
     </row>
     <row r="122" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L122" s="18">
+      <c r="L122" s="17">
         <v>0</v>
       </c>
       <c r="M122" t="s">
@@ -3256,12 +3596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,33 +3609,33 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3309,8 +3649,11 @@
       <c r="C3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,8 +3666,11 @@
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3337,7 +3683,7 @@
       <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3351,8 +3697,8 @@
       <c r="C6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3365,8 +3711,8 @@
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" s="16">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3378,12 +3724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q54" sqref="A54:Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,4 +3774,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>118</v>
+      </c>
+      <c r="N65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>111</v>
+      </c>
+      <c r="N66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>55</v>
+      </c>
+      <c r="N94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>111</v>
+      </c>
+      <c r="N95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>59</v>
+      </c>
+      <c r="J118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <sheet name="Bug tuần 5" sheetId="8" r:id="rId7"/>
     <sheet name="Tuần 6" sheetId="10" r:id="rId8"/>
     <sheet name="Bug tuần 6" sheetId="9" r:id="rId9"/>
-    <sheet name="Map" sheetId="4" r:id="rId10"/>
+    <sheet name="Bug tuần 8" sheetId="11" r:id="rId10"/>
+    <sheet name="Map" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>Code màn hình (6)</t>
   </si>
@@ -443,13 +444,76 @@
   </si>
   <si>
     <t>Xem note lỗi chưa sửa ở tuần 5</t>
+  </si>
+  <si>
+    <t>Đặt phòng -&gt; checkin -&gt; checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hành động: </t>
+  </si>
+  <si>
+    <t>Hiện lỗi</t>
+  </si>
+  <si>
+    <t>Check out xong sẽ hiện nút "đã check out" và ko có lỗi trên</t>
+  </si>
+  <si>
+    <t>Đăng nhập dưới quyền nhân viên, nhấp vào quản lý TK, sau đó nhấp vào quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Hiện trang 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yêu cầu: </t>
+  </si>
+  <si>
+    <t>Qua trang quản lý đặt phòng một các bình thường mà ko hiện 404</t>
+  </si>
+  <si>
+    <t>Chọn quốc gia lúc thanh toán, ko phải tìm phòng</t>
+  </si>
+  <si>
+    <t>Hành động</t>
+  </si>
+  <si>
+    <t>thanh toán với tiền phòng quy ra $  thấp (gần bằng 0)</t>
+  </si>
+  <si>
+    <t>Màn hình ko phản hồi</t>
+  </si>
+  <si>
+    <t>Cho phép thanh toán bình thường</t>
+  </si>
+  <si>
+    <t>Tất cả các loại tài khoản đều có thể sử dụng để tìm phòng</t>
+  </si>
+  <si>
+    <t>Yêu cầu bỏ đi các ràng buộc về tài khoản cho chức năng tìm phòng</t>
+  </si>
+  <si>
+    <t>Đăng nhập như nhân viên, vào phần đặt phòng</t>
+  </si>
+  <si>
+    <t>Xuất hiện chữ clear và input phòng bị khóa</t>
+  </si>
+  <si>
+    <t>Cần làm rõ chỗ này, ko hiểu</t>
+  </si>
+  <si>
+    <t>Đăng nhập như nhân viên, vào phần đặt phòng, đặt phòng khi chọn "clear"</t>
+  </si>
+  <si>
+    <t>Bị lỗi</t>
+  </si>
+  <si>
+    <t>Kiểm tra input và thông báo lỗi cho người dùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +574,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4B4F56"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -561,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,6 +683,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,12 +698,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,6 +1606,239 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46362</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="10104762" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494990</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="2476190" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314038</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8382000"/>
+          <a:ext cx="2295238" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560952</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10096500"/>
+          <a:ext cx="8180952" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532686</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13525500"/>
+          <a:ext cx="5714286" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46362</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>27952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="10104762" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -1880,13 +2184,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1968,6 +2272,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>59</v>
+      </c>
+      <c r="K74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1999,13 +2477,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2086,13 +2564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3217,13 +3695,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3614,13 +4092,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3728,7 +4206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Q54" sqref="A54:Q83"/>
     </sheetView>
   </sheetViews>
@@ -3780,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3794,28 +4272,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1"/>
@@ -3824,7 +4302,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3841,7 +4319,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -3858,7 +4336,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -3875,7 +4353,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3892,7 +4370,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3909,7 +4387,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">

--- a/6_project management/Timesheet.xlsx
+++ b/6_project management/Timesheet.xlsx
@@ -689,6 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,7 +699,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,6 +1636,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1674,6 +1679,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1712,6 +1722,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1750,6 +1765,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1788,6 +1808,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1826,6 +1851,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2184,13 +2214,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2275,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2316,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2477,13 +2507,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2564,13 +2594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3695,13 +3725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4092,13 +4122,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -4272,13 +4302,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
